--- a/data/results/monthly_model/monthly_signal_market_correlation.xlsx
+++ b/data/results/monthly_model/monthly_signal_market_correlation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,48 +443,48 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FMC CORP</t>
+          <t>TOTALENERGIES SE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0732 </t>
+          <t xml:space="preserve">-0.0401 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ALTAGAS LTD</t>
+          <t>FMC CORP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0537 </t>
+          <t xml:space="preserve">-0.0732 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>WEYERHAEUSER CO</t>
+          <t>ALTAGAS LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0047 </t>
+          <t xml:space="preserve">0.0537 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>WEYERHAEUSER CO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1342 </t>
+          <t xml:space="preserve">-0.0047 </t>
         </is>
       </c>
     </row>
@@ -496,7 +496,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.1927 </t>
+          <t xml:space="preserve">-0.1832 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>STORA ENSO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1342 </t>
         </is>
       </c>
     </row>
